--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3868.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3868.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.751225338279454</v>
+        <v>4.54465389251709</v>
       </c>
       <c r="B1">
-        <v>3.083013117216413</v>
+        <v>4.123712062835693</v>
       </c>
       <c r="C1">
-        <v>3.365635422300178</v>
+        <v>3.566134214401245</v>
       </c>
       <c r="D1">
-        <v>3.629719791243742</v>
+        <v>4.34528636932373</v>
       </c>
       <c r="E1">
-        <v>0.8062992509738132</v>
+        <v>4.800866603851318</v>
       </c>
     </row>
   </sheetData>
